--- a/biology/Médecine/Loi_sur_l'assistance_médicale/Loi_sur_l'assistance_médicale.xlsx
+++ b/biology/Médecine/Loi_sur_l'assistance_médicale/Loi_sur_l'assistance_médicale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Loi_sur_l%27assistance_m%C3%A9dicale</t>
+          <t>Loi_sur_l'assistance_médicale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La loi du 15 juillet 1893 sur l'assistance médicale fut votée sous la Troisième République. Elle est l'un des symboles du solidarisme et un pilier de l'émergence de l'État-Providence ou « société assurantielle ». 
-Son article premier établit que[1] :
+Son article premier établit que :
 « Tout Français malade, privé de ressources, reçoit gratuitement de la commune, du département ou de l'État suivant son domicile de secours, l'assistance médicale à domicile, ou s'il y a impossibilité de le soigner utilement à domicile, dans un lieu hospitalier. 
 Les femmes en couche sont assimilées à des malades.
 Les étrangers malades, privés de ressources, seront assimilés aux Français toutes les fois que le Gouvernement aura passé un traité d'assistance réciproque avec leur nation d'origine. »
